--- a/参数格式2.xlsx
+++ b/参数格式2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Cloud-Lab\Cloud-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Cloud-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>函数名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
   </si>
   <si>
     <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main/coursedetail.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -144,14 +140,6 @@
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"classid":1,
-"charpter":1,
-"lesson":2,
-"action":"next(prev)"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -265,12 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"snap":["url","url","url"],"video":["121","122","123"],"remark":["","",""]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ppt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,14 +270,6 @@
  "charpter":，
  "lesson":，
  "preparation":
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "classid":，
- "charpter":，
- "lesson":,"action":"getPPTandRemark"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,10 +281,6 @@
  "pagenum":，
  "remark":,"action":"commitRemark"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":"success"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -406,33 +376,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"classes":
- [
-  {
-   "classid":123,
-   "classname":"711111",
-   "coursename":"java",
-   "imgurl":"xxx",
-   "progress":{"charpter":"xxx",
-     "lesson":"xxx",
-     "percent":"xxx"
-     },
-   "description":"xxx",
-   "studentsnum":123
-  },
-  {
-   "classid":123,
-   "classname":"711111",
-   "coursename":"html",
-   "imgurl":"xxx",
-   "progress":{"charpter":"xxx",
-     "lesson":"xxx",
-     "percent":"xxx"
-     },
-   "description":"xxx",
-   "studentsnum":123
-  }
- ]
+    <t>main/coursedetail.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "classid":，
+ "charpter":，
+ "lesson":,"action":"getPPTandRemark"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"classid":1,
+"charpter":1,
+"lesson":2,
+"action":"next(prev)"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "snap": [
+        "/image/PrinciplesOfDatabase/1-1-01.png",
+        "/image/PrinciplesOfDatabase/1-1-02.png",
+        "/image/PrinciplesOfDatabase/1-1-03.png",
+        "/image/PrinciplesOfDatabase/1-1-04.png",
+        "/image/PrinciplesOfDatabase/1-1-05.png"
+    ],
+    "video": [
+        "0",
+        "15",
+        "440",
+        "1041",
+        "1733"
+    ],
+    "remark": [
+        "very good!",
+        "这是在测试￥，这是更改后的版333",
+        "Xixi world!",
+        "这个是测试",
+        "undefined"
+    ],
+    "preparation": "这22个是教案的，也就是说实在的教学"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -513,6 +505,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -876,13 +871,13 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -896,190 +891,190 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1097,151 +1092,151 @@
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="405" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/参数格式2.xlsx
+++ b/参数格式2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
     <t>函数名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,15 +285,6 @@
   </si>
   <si>
     <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"questions":
- [
- {"question":"", "answer":""},
- {"question":"", "answer":""}
- ] 
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,6 +410,90 @@
         "undefined"
     ],
     "preparation": "这22个是教案的，也就是说实在的教学"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/userhomepage.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提是用户已经成功登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "usertype":xxxx in array{student,teacher,others},
+ "info":{
+  "username":cwlseu,
+  "idtype":"工作证",
+  "idvalue":"123456789012345678",
+  "birthday":"2013-11-11",
+  "email":"cwlseu@qq.com",
+  "classes":[{
+       "classid":123,
+       "classname":"711111",
+       "coursename":"java",
+       "imgurl":"xxx",
+       "progress":{
+        "charpter":"xxx",
+         "lesson":"xxx",
+         "percent":"xxx"},
+       "description":"xxx",
+       "studentsnum":123
+     },
+     {
+       "classid":123,
+       "classname":"711111",
+       "coursename":"html",
+       "imgurl":"xxx",
+       "progress":{
+        "charpter":"xxx",
+         "lesson":"xxx",
+         "percent":"xxx"},
+       "description":"xxx",
+       "studentsnum":123
+     }]
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "usertype":xxxx in array{student,teacher,others},
+ "info":{
+  "username":cwlseu,
+  "idtype":"身份证",
+  "idvalue":"123456789012345678",
+  "birthday":"2013-11-11",
+  "email":"cwlseu@qq.com"
+  "attendcourse":[{
+   "classname":"Oracle基础",
+   "teacher":"刘伯温",
+   "classbegin":"2013-11-11",
+   "classend":"2014-11-11",
+   "grade":"0"
+   },{
+   "classname":"Oracle提高",
+   "teacher":"王明川",
+   "classbegin":"2013-11-11",
+   "classend":"2014-11-11",
+   "grade":"0"
+   },
+  ]
+ }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,7 +553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,6 +583,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,20 +924,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="42.625" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="6.25" customWidth="1"/>
+    <col min="4" max="4" width="47.5" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="52" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -891,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -899,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
@@ -945,7 +1026,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -991,7 +1072,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>19</v>
@@ -1073,44 +1154,44 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
@@ -1121,13 +1202,13 @@
         <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
@@ -1161,7 +1242,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -1179,41 +1260,41 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
         <v>54</v>
       </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
@@ -1225,23 +1306,76 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" ht="324" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A11:F12"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="H21:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/参数格式2.xlsx
+++ b/参数格式2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Cloud-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Cloud-Lab\Cloud-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
   <si>
     <t>函数名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,10 +281,6 @@
  "pagenum":，
  "remark":,"action":"commitRemark"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -333,9 +329,6 @@
   <si>
     <t>json</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main/courseDetail.php</t>
   </si>
   <si>
     <t>{"classid":,   "action":"courseDetail"}</t>
@@ -494,6 +487,45 @@
    },
   ]
  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/courseDetail.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/homework.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"questions":
+ [
+ {"id":1,"question":"", "answer":""},
+ {"id":5,"question":"", "answer":""}
+ ] 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"classid":,
+"charpter":,
+"lesson":,
+"action":"handinhomework",
+"homework":[
+    {"questionid":"","answer":""},
+    {"questionid":"","answer":""}
+    ……
+    ]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -585,10 +617,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,10 +956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -972,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -980,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
@@ -1026,7 +1058,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1072,7 +1104,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>19</v>
@@ -1112,10 +1144,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -1135,7 +1167,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>18</v>
@@ -1154,38 +1186,38 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>42</v>
@@ -1202,13 +1234,13 @@
         <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
@@ -1242,7 +1274,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -1265,22 +1297,22 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>44</v>
+      <c r="F17" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1288,19 +1320,19 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
         <v>41</v>
@@ -1317,59 +1349,73 @@
         <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="A20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="324" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
         <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>74</v>
       </c>
-      <c r="G21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="10"/>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/参数格式2.xlsx
+++ b/参数格式2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
   <si>
     <t>函数名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +526,109 @@
     {"questionid":"","answer":""}
     ……
     ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "homework": [
+        {
+            "homeworkid": "11",
+            "questionid": "2",
+            "question": "简述数据库的物理设计内容",
+            "myanswer": "这个是作业提交的测试",
+            "referenceanswer": "主要包括了以下工作：\r\n(1) 确定数据的存储结构，决定是否采用聚簇功能。\r\n(2）设计数据的存取路径，决定是否建立索引，建多少索引，在哪些列或多列上建索引等。 \r\n(3）确定数据的存放的物理位置，决定是否将经常存取部分和存取频率较低部分分开存放等。 \r\n(4）确定系统配置参数，根据DBMS产品提供了一些存储分配参数，数据库进行物理优化。\r\n(5) 评价物理结构, 估算各种方案的存储空间、存取时间和维护代价，对估算结果进行权衡、比较，选择出一个较优的合理的物理结构。"
+        },
+        {
+            "homeworkid": "11",
+            "questionid": "2",
+            "question": "简述数据库的物理设计内容",
+            "myanswer": "这个是作业提交的测试",
+            "referenceanswer": "主要包括了以下工作：\r\n(1) 确定数据的存储结构，决定是否采用聚簇功能。\r\n(2）设计数据的存取路径，决定是否建立索引，建多少索引，在哪些列或多列上建索引等。 \r\n(3）确定数据的存放的物理位置，决定是否将经常存取部分和存取频率较低部分分开存放等。 \r\n(4）确定系统配置参数，根据DBMS产品提供了一些存储分配参数，数据库进行物理优化。\r\n(5) 评价物理结构, 估算各种方案的存储空间、存取时间和维护代价，对估算结果进行权衡、比较，选择出一个较优的合理的物理结构。"
+        },
+        {
+            "homeworkid": "11",
+            "questionid": "2",
+            "question": "简述数据库的物理设计内容",
+            "myanswer": "这个是作业提交的测试",
+            "referenceanswer": "主要包括了以下工作：\r\n(1) 确定数据的存储结构，决定是否采用聚簇功能。\r\n(2）设计数据的存取路径，决定是否建立索引，建多少索引，在哪些列或多列上建索引等。 \r\n(3）确定数据的存放的物理位置，决定是否将经常存取部分和存取频率较低部分分开存放等。 \r\n(4）确定系统配置参数，根据DBMS产品提供了一些存储分配参数，数据库进行物理优化。\r\n(5) 评价物理结构, 估算各种方案的存储空间、存取时间和维护代价，对估算结果进行权衡、比较，选择出一个较优的合理的物理结构。"
+        },
+        {
+            "homeworkid": "11",
+            "questionid": "2",
+            "question": "简述数据库的物理设计内容",
+            "myanswer": "这个是作业提交的测试",
+            "referenceanswer": "主要包括了以下工作：\r\n(1) 确定数据的存储结构，决定是否采用聚簇功能。\r\n(2）设计数据的存取路径，决定是否建立索引，建多少索引，在哪些列或多列上建索引等。 \r\n(3）确定数据的存放的物理位置，决定是否将经常存取部分和存取频率较低部分分开存放等。 \r\n(4）确定系统配置参数，根据DBMS产品提供了一些存储分配参数，数据库进行物理优化。\r\n(5) 评价物理结构, 估算各种方案的存储空间、存取时间和维护代价，对估算结果进行权衡、比较，选择出一个较优的合理的物理结构。"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"classid":,
+"charpter":,
+"lesson":,
+"action":"checkallhomework"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"classid":,
+"charpter":,
+"lesson":,
+"action":"handinhomework",
+"questionid":"",
+"answer":"",
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生
+暂时使用这个API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生
+现在未使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":"success|failure"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/askquestion.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"classid":,
+"charpter":,
+"lesson":,
+"action":"askquestion",
+"askquestion":"xxxxx",
+"site":array('top1'=&gt; , 'top2'=&gt; , 'left1'=&gt; , 'left2'=&gt;)
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"askid":"askquestion的id号",
+"action":"answerquestion",
+"answer":"xxxxxx"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -956,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -993,7 +1096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1363,7 +1466,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:8" ht="324" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1385,7 +1488,7 @@
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>68</v>
       </c>
@@ -1403,7 +1506,7 @@
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1415,6 +1518,102 @@
       </c>
       <c r="D23" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
